--- a/Study 3/Shocks/GCAM/CP_EI - 2095.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2095.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.0581123380580755</v>
+        <v>0.05811233805807551</v>
       </c>
     </row>
     <row r="5">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1549122265796091</v>
+        <v>0.1549122265796092</v>
       </c>
     </row>
     <row r="13">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05970174568932389</v>
+        <v>0.0597017456893239</v>
       </c>
     </row>
     <row r="21">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2200271023715059</v>
+        <v>0.220027102371506</v>
       </c>
     </row>
     <row r="41">
